--- a/第1章 学习做表/1.2.1 把Excel当笔记本用.xlsx
+++ b/第1章 学习做表/1.2.1 把Excel当笔记本用.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="18120" windowHeight="5640" activeTab="7"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="18120" windowHeight="5640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="行政部" sheetId="1" r:id="rId1"/>
@@ -13,22 +13,23 @@
     <sheet name="销售部" sheetId="4" r:id="rId4"/>
     <sheet name="统计1" sheetId="5" r:id="rId5"/>
     <sheet name="统计2" sheetId="8" r:id="rId6"/>
-    <sheet name="多表合并" sheetId="6" r:id="rId7"/>
-    <sheet name="多表合并（优化）" sheetId="9" r:id="rId8"/>
-    <sheet name="透视表" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="多表合并" sheetId="6" r:id="rId8"/>
+    <sheet name="多表合并（优化）" sheetId="9" r:id="rId9"/>
+    <sheet name="透视表" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="部门">{"行政部","人事部","财务部","销售部"}</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId10"/>
+    <pivotCache cacheId="10" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,13 +115,7 @@
   </si>
   <si>
     <t>1月</t>
-  </si>
-  <si>
-    <t>1月</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月</t>
   </si>
   <si>
     <t>2月</t>
@@ -128,13 +123,7 @@
   </si>
   <si>
     <t>3月</t>
-  </si>
-  <si>
-    <t>3月</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月</t>
   </si>
   <si>
     <t>4月</t>
@@ -145,27 +134,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>行标签</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>列标签</t>
-  </si>
-  <si>
     <t>求和项:数量</t>
   </si>
   <si>
     <t>辅助列</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of 数量</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,11 +302,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -372,14 +426,730 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[1.2.1 把Excel当笔记本用.xlsx]Sheet1!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A4纸</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>万次贴</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单片夹</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>文件夹</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>水笔</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>水笔芯</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>笔记本</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>订书机</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>订书针</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="121567488"/>
+        <c:axId val="130462080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="121567488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130462080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="130462080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121567488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,20 +1181,20 @@
       <fieldGroup base="0">
         <rangePr groupBy="months" startDate="2013-01-19T00:00:00" endDate="2013-04-24T00:00:00"/>
         <groupItems count="14">
-          <s v="&lt;2013-1-19"/>
-          <s v="1月"/>
-          <s v="2月"/>
-          <s v="3月"/>
-          <s v="4月"/>
-          <s v="5月"/>
-          <s v="6月"/>
-          <s v="7月"/>
-          <s v="8月"/>
-          <s v="9月"/>
-          <s v="10月"/>
-          <s v="11月"/>
-          <s v="12月"/>
-          <s v="&gt;2013-4-24"/>
+          <s v="&lt;01/19/2013"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;04/24/2013"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -620,7 +1390,127 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of 数量" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -719,26 +1609,14 @@
   <dataFields count="1">
     <dataField name="求和项:数量" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="3">
+  <formats count="3">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="4">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -752,14 +1630,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1044,14 +1922,14 @@
       <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -1060,8 +1938,8 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="10.5" customHeight="1"/>
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>41294</v>
       </c>
@@ -1093,7 +1971,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>41313</v>
       </c>
@@ -1108,7 +1986,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>41328</v>
       </c>
@@ -1123,7 +2001,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>41343</v>
       </c>
@@ -1138,7 +2016,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>41363</v>
       </c>
@@ -1153,7 +2031,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="4">
         <v>41378</v>
       </c>
@@ -1168,7 +2046,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1189,6 +2067,210 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11">
+        <v>5</v>
+      </c>
+      <c r="K3" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
+        <v>20</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
+        <v>10</v>
+      </c>
+      <c r="I5" s="11">
+        <v>5</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>40</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>10</v>
+      </c>
+      <c r="K7" s="11">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
@@ -1197,14 +2279,14 @@
       <selection activeCell="A4" sqref="A4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -1213,8 +2295,8 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="10.5" customHeight="1"/>
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +2313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>41293</v>
       </c>
@@ -1246,7 +2328,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>41314</v>
       </c>
@@ -1261,7 +2343,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>41339</v>
       </c>
@@ -1276,7 +2358,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>41363</v>
       </c>
@@ -1291,21 +2373,21 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1334,14 +2416,14 @@
       <selection activeCell="A4" sqref="A4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -1350,8 +2432,8 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="10.5" customHeight="1"/>
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>41301</v>
       </c>
@@ -1383,7 +2465,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>41319</v>
       </c>
@@ -1398,7 +2480,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>41335</v>
       </c>
@@ -1413,7 +2495,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>41363</v>
       </c>
@@ -1428,7 +2510,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>41387</v>
       </c>
@@ -1443,14 +2525,14 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1479,14 +2561,14 @@
       <selection activeCell="A4" sqref="A4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -1495,8 +2577,8 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="10.5" customHeight="1"/>
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +2595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>41302</v>
       </c>
@@ -1528,7 +2610,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>41320</v>
       </c>
@@ -1543,7 +2625,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>41349</v>
       </c>
@@ -1558,7 +2640,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>41377</v>
       </c>
@@ -1573,21 +2655,21 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1616,7 +2698,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
@@ -1625,7 +2707,7 @@
     <col min="5" max="10" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -1655,9 +2737,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <f>SUMPRODUCT((MONTH(多表合并!$A$4:$A$22)=--LEFT($A2))*(多表合并!$B$4:$B$22=B$1)*多表合并!$C$4:$C$22)</f>
@@ -1696,9 +2778,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <f>SUMPRODUCT((MONTH(多表合并!$A$4:$A$22)=--LEFT($A3))*(多表合并!$B$4:$B$22=B$1)*多表合并!$C$4:$C$22)</f>
@@ -1737,9 +2819,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <f>SUMPRODUCT((MONTH(多表合并!$A$4:$A$22)=--LEFT($A4))*(多表合并!$B$4:$B$22=B$1)*多表合并!$C$4:$C$22)</f>
@@ -1778,9 +2860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <f>SUMPRODUCT((MONTH(多表合并!$A$4:$A$22)=--LEFT($A5))*(多表合并!$B$4:$B$22=B$1)*多表合并!$C$4:$C$22)</f>
@@ -1833,7 +2915,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
@@ -1842,7 +2924,7 @@
     <col min="5" max="10" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -1872,9 +2954,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <f>SUMIFS(多表合并!$C$4:$C$22,多表合并!$H$4:$H$22,$A2,多表合并!$B$4:$B$22,B$1)</f>
@@ -1913,9 +2995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <f>SUMIFS(多表合并!$C$4:$C$22,多表合并!$H$4:$H$22,$A3,多表合并!$B$4:$B$22,B$1)</f>
@@ -1954,9 +3036,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <f>SUMIFS(多表合并!$C$4:$C$22,多表合并!$H$4:$H$22,$A4,多表合并!$B$4:$B$22,B$1)</f>
@@ -1995,9 +3077,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <f>SUMIFS(多表合并!$C$4:$C$22,多表合并!$H$4:$H$22,$A5,多表合并!$B$4:$B$22,B$1)</f>
@@ -2044,18 +3126,222 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="15">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="15">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
+        <v>3</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15">
+        <v>2</v>
+      </c>
+      <c r="K5" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15">
+        <v>4</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="15">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15">
+        <v>40</v>
+      </c>
+      <c r="H7" s="15">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2</v>
+      </c>
+      <c r="J7" s="15">
+        <v>2</v>
+      </c>
+      <c r="K7" s="15">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="A3:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="20.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -2065,7 +3351,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2082,13 +3368,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>41294</v>
       </c>
@@ -2110,7 +3396,7 @@
         <v>1月</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>41313</v>
       </c>
@@ -2132,7 +3418,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>41328</v>
       </c>
@@ -2154,7 +3440,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>41343</v>
       </c>
@@ -2176,7 +3462,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>41363</v>
       </c>
@@ -2198,7 +3484,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>41378</v>
       </c>
@@ -2220,7 +3506,7 @@
         <v>4月</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>41293</v>
       </c>
@@ -2242,7 +3528,7 @@
         <v>1月</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>41314</v>
       </c>
@@ -2264,7 +3550,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>41339</v>
       </c>
@@ -2286,7 +3572,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>41363</v>
       </c>
@@ -2308,7 +3594,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>41301</v>
       </c>
@@ -2330,7 +3616,7 @@
         <v>1月</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>41319</v>
       </c>
@@ -2352,7 +3638,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>41335</v>
       </c>
@@ -2374,7 +3660,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>41363</v>
       </c>
@@ -2396,7 +3682,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>41387</v>
       </c>
@@ -2418,7 +3704,7 @@
         <v>4月</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>41302</v>
       </c>
@@ -2440,7 +3726,7 @@
         <v>1月</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>41320</v>
       </c>
@@ -2462,7 +3748,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>41349</v>
       </c>
@@ -2484,7 +3770,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>41377</v>
       </c>
@@ -2520,20 +3806,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2550,13 +3839,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>41294</v>
       </c>
@@ -2578,7 +3867,7 @@
         <v>1月</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>41313</v>
       </c>
@@ -2600,7 +3889,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>41328</v>
       </c>
@@ -2622,7 +3911,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>41343</v>
       </c>
@@ -2644,7 +3933,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>41363</v>
       </c>
@@ -2666,7 +3955,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>41378</v>
       </c>
@@ -2688,7 +3977,7 @@
         <v>4月</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>41293</v>
       </c>
@@ -2710,7 +3999,7 @@
         <v>1月</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>41314</v>
       </c>
@@ -2732,7 +4021,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>41339</v>
       </c>
@@ -2754,7 +4043,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>41363</v>
       </c>
@@ -2776,7 +4065,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>41301</v>
       </c>
@@ -2798,7 +4087,7 @@
         <v>1月</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>41319</v>
       </c>
@@ -2820,7 +4109,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>41335</v>
       </c>
@@ -2842,7 +4131,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>41363</v>
       </c>
@@ -2864,7 +4153,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>41387</v>
       </c>
@@ -2886,7 +4175,7 @@
         <v>4月</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>41302</v>
       </c>
@@ -2908,7 +4197,7 @@
         <v>1月</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>41320</v>
       </c>
@@ -2930,7 +4219,7 @@
         <v>2月</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>41349</v>
       </c>
@@ -2952,7 +4241,7 @@
         <v>3月</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>41377</v>
       </c>
@@ -2983,208 +4272,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="6" width="7.125" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
-    <col min="8" max="10" width="7.125" customWidth="1"/>
-    <col min="11" max="11" width="5.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11">
-        <v>5</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11">
-        <v>5</v>
-      </c>
-      <c r="K3" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
-        <v>20</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="11">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
-        <v>2</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
-        <v>10</v>
-      </c>
-      <c r="I5" s="11">
-        <v>5</v>
-      </c>
-      <c r="J5" s="11">
-        <v>3</v>
-      </c>
-      <c r="K5" s="11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
-        <v>10</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11">
-        <v>2</v>
-      </c>
-      <c r="K6" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="11">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11">
-        <v>5</v>
-      </c>
-      <c r="H7" s="11">
-        <v>40</v>
-      </c>
-      <c r="I7" s="11">
-        <v>5</v>
-      </c>
-      <c r="J7" s="11">
-        <v>10</v>
-      </c>
-      <c r="K7" s="11">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/第1章 学习做表/1.2.1 把Excel当笔记本用.xlsx
+++ b/第1章 学习做表/1.2.1 把Excel当笔记本用.xlsx
@@ -13,7 +13,7 @@
     <sheet name="销售部" sheetId="4" r:id="rId4"/>
     <sheet name="统计1" sheetId="5" r:id="rId5"/>
     <sheet name="统计2" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId7"/>
     <sheet name="多表合并" sheetId="6" r:id="rId8"/>
     <sheet name="多表合并（优化）" sheetId="9" r:id="rId9"/>
     <sheet name="透视表" sheetId="7" r:id="rId10"/>
@@ -23,13 +23,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,6 +164,12 @@
   <si>
     <t>Apr</t>
   </si>
+  <si>
+    <t>Qtr1</t>
+  </si>
+  <si>
+    <t>Qtr2</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,29 +296,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <border>
         <left style="thin">
@@ -359,28 +368,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -568,7 +555,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[1.2.1 把Excel当笔记本用.xlsx]Sheet1!PivotTable2</c:name>
+    <c:name>[1.2.1 把Excel当笔记本用.xlsx]Sheet1!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -603,28 +590,38 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -657,28 +654,38 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -705,28 +712,38 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:f>Sheet1!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -753,28 +770,38 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:f>Sheet1!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -807,28 +834,38 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:f>Sheet1!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -855,28 +892,38 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:f>Sheet1!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -909,28 +956,38 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$7</c:f>
+              <c:f>Sheet1!$H$3:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -960,28 +1017,38 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:f>Sheet1!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1011,28 +1078,38 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$7</c:f>
+              <c:f>Sheet1!$J$3:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1052,11 +1129,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121567488"/>
-        <c:axId val="130462080"/>
+        <c:axId val="122961920"/>
+        <c:axId val="122963456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121567488"/>
+        <c:axId val="122961920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130462080"/>
+        <c:crossAx val="122963456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1073,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130462080"/>
+        <c:axId val="122963456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121567488"/>
+        <c:crossAx val="122961920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1121,15 +1198,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1157,7 +1234,7 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:F22" sheet="多表合并"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="7">
     <cacheField name="日期" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2013-01-19T00:00:00" maxDate="2013-04-24T00:00:00" count="17">
         <d v="2013-01-20T00:00:00"/>
@@ -1178,7 +1255,7 @@
         <d v="2013-03-16T00:00:00"/>
         <d v="2013-04-13T00:00:00"/>
       </sharedItems>
-      <fieldGroup base="0">
+      <fieldGroup par="6" base="0">
         <rangePr groupBy="months" startDate="2013-01-19T00:00:00" endDate="2013-04-24T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;01/19/2013"/>
@@ -1222,6 +1299,19 @@
     </cacheField>
     <cacheField name="部门" numFmtId="0">
       <sharedItems/>
+    </cacheField>
+    <cacheField name="Quarters" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="quarters" startDate="2013-01-19T00:00:00" endDate="2013-04-24T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;01/19/2013"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;04/24/2013"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1390,9 +1480,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -1430,21 +1520,38 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
+    <field x="6"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="7">
     <i>
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
+    <i r="1">
       <x v="4"/>
     </i>
     <i t="grand">
@@ -1510,9 +1617,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -1550,21 +1657,38 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
+    <field x="6"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="7">
     <i>
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
+    <i r="1">
       <x v="4"/>
     </i>
     <i t="grand">
@@ -1610,13 +1734,13 @@
     <dataField name="求和项:数量" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2069,7 +2193,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -2130,138 +2254,168 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
         <v>5</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
         <v>5</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K4" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
         <v>20</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
         <v>10</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I6" s="10">
         <v>5</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J6" s="10">
         <v>3</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K6" s="10">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>10</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
         <v>2</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K8" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="10" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B9" s="10">
         <v>10</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C9" s="10">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D9" s="10">
         <v>10</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H9" s="10">
         <v>40</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I9" s="10">
         <v>5</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J9" s="10">
         <v>10</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K9" s="10">
         <v>90</v>
       </c>
     </row>
@@ -3126,10 +3280,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3187,138 +3341,168 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
         <v>5</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F4" s="12">
         <v>5</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12">
         <v>1</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>10</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <v>20</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12">
         <v>1</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B6" s="12">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C6" s="12">
         <v>5</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
         <v>3</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H6" s="12">
         <v>2</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
         <v>2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K6" s="12">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
-        <v>10</v>
-      </c>
-      <c r="H6" s="15">
-        <v>4</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B9" s="12">
         <v>10</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C9" s="12">
         <v>5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D9" s="12">
         <v>10</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E9" s="12">
         <v>10</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F9" s="12">
         <v>5</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G9" s="12">
         <v>40</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H9" s="12">
         <v>6</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I9" s="12">
         <v>2</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J9" s="12">
         <v>2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K9" s="12">
         <v>90</v>
       </c>
     </row>
@@ -3336,10 +3520,13 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="A3:F22"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
       <c r="A1" s="13" t="s">
@@ -3370,7 +3557,7 @@
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3803,6 +3990,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3841,7 +4029,7 @@
       <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
